--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABD/10/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABD/10/seed5/result_data_KNN.xlsx
@@ -539,7 +539,7 @@
         <v>-12.89</v>
       </c>
       <c r="D6" t="n">
-        <v>-8.135999999999999</v>
+        <v>-7.412000000000001</v>
       </c>
       <c r="E6" t="n">
         <v>14.65</v>
@@ -556,7 +556,7 @@
         <v>-10.59</v>
       </c>
       <c r="D7" t="n">
-        <v>-6.696</v>
+        <v>-7.114999999999999</v>
       </c>
       <c r="E7" t="n">
         <v>14.77</v>
@@ -567,7 +567,7 @@
         <v>-21.48</v>
       </c>
       <c r="B8" t="n">
-        <v>5.584</v>
+        <v>6.371</v>
       </c>
       <c r="C8" t="n">
         <v>-11.02</v>
@@ -632,10 +632,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.816</v>
+        <v>-21.401</v>
       </c>
       <c r="B12" t="n">
-        <v>6.272</v>
+        <v>6.694999999999999</v>
       </c>
       <c r="C12" t="n">
         <v>-15.79</v>
@@ -669,7 +669,7 @@
         <v>-20.07</v>
       </c>
       <c r="B14" t="n">
-        <v>7.694</v>
+        <v>6.532000000000001</v>
       </c>
       <c r="C14" t="n">
         <v>-11.89</v>
@@ -760,7 +760,7 @@
         <v>-14.32</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.33</v>
+        <v>-7.947</v>
       </c>
       <c r="E19" t="n">
         <v>13.12</v>
@@ -794,7 +794,7 @@
         <v>-12.06</v>
       </c>
       <c r="D21" t="n">
-        <v>-6.928</v>
+        <v>-7.105999999999999</v>
       </c>
       <c r="E21" t="n">
         <v>13.76</v>
@@ -805,7 +805,7 @@
         <v>-20.95</v>
       </c>
       <c r="B22" t="n">
-        <v>7.128</v>
+        <v>6.370999999999999</v>
       </c>
       <c r="C22" t="n">
         <v>-10.65</v>
@@ -845,7 +845,7 @@
         <v>-12.7</v>
       </c>
       <c r="D24" t="n">
-        <v>-6.98</v>
+        <v>-7.456</v>
       </c>
       <c r="E24" t="n">
         <v>12.16</v>
